--- a/biology/Zoologie/Gymnorhamphichthys/Gymnorhamphichthys.xlsx
+++ b/biology/Zoologie/Gymnorhamphichthys/Gymnorhamphichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gymnorhamphichthys est un genre de poissons de la famille des Rhamphichthyidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des poissons électriques.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (30 mai 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (30 mai 2010) :
 Gymnorhamphichthys hypostomus Ellis, 1912
 Gymnorhamphichthys petiti Géry &amp; Vu-Tân-Tuê, 1964
 Gymnorhamphichthys rondoni (Miranda Ribeiro, 1920)
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eigenmann, 1912 : The freshwater fishes of British Guiana, including a study of the ecological grouping of species, and the relation of the fauna of the plateau to that of the lowlands. Memoirs of the Carnegie Museum, vol. 5, n. 1, p. 1-578.</t>
         </is>
